--- a/Algorithm/Test results/tests - implementation first version.xlsx
+++ b/Algorithm/Test results/tests - implementation first version.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="22">
   <si>
     <t>Number of rewritings</t>
   </si>
@@ -30,35 +30,65 @@
     <t>Q2</t>
   </si>
   <si>
-    <t>0.0156001</t>
+    <t>Number of single measures</t>
   </si>
   <si>
-    <t>0.0156002</t>
+    <t>Q3</t>
   </si>
   <si>
-    <t>0.0156003</t>
+    <t>Q4</t>
   </si>
   <si>
-    <t>0.0312002</t>
+    <t>Q5</t>
   </si>
   <si>
-    <t>0.0780005</t>
+    <t>Number of abstract services</t>
   </si>
   <si>
-    <t>0.1248008</t>
+    <t>??</t>
   </si>
   <si>
-    <t>0.2964019</t>
+    <t>No memory for processing it</t>
   </si>
   <si>
-    <t>0.2496016</t>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Q1 and Q2 have 2 abstract services and 2 single measures, Q1 has no dependencies, Q2 has one dependency, All concrete services have only one abstract service,</t>
+  </si>
+  <si>
+    <t>Q1 and Q2 have 2 abstract services, Q1 has no dependencies, Q2 has one dependency, All concrete services have only one abstract service, All examples have 20 concrete services,</t>
+  </si>
+  <si>
+    <t>All concrete services cover all the query,</t>
+  </si>
+  <si>
+    <t>Q1 has 6 abstract services, 2 single measures, and no dependency,</t>
+  </si>
+  <si>
+    <t>Q2 has 6 abstract services, 2 single measures, and 1 dependency,</t>
+  </si>
+  <si>
+    <t>Q3 has 6 abstract services, 2 single measures, and 2 dependency,</t>
+  </si>
+  <si>
+    <t>Q4 has 6 abstract services, 2 single measures, and 3 dependency,</t>
+  </si>
+  <si>
+    <t>Q5 has 6 abstract services, 2 single measures, and 5 dependency,</t>
+  </si>
+  <si>
+    <t>All concrete services cover all the query, The query has 2 single measures and no dependency,</t>
+  </si>
+  <si>
+    <t>All concrete services cover all the query, Query without dependency and with 2 single measures,</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -66,18 +96,221 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="14">
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -87,8 +320,75 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -101,6 +401,1538 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil1!$E$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Q1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Feuil1!$D$6:$D$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$E$6:$E$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.56001E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.56002E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5600299999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.1200200000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.80005E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.2964019</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil1!$F$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Q2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$F$6:$F$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.56001E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.1200200000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.1200200000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.1248008</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.24960160000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="96601216"/>
+        <c:axId val="96602752"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="96601216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="96602752"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="96602752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="96601216"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil1!$E$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Q1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Feuil1!$D$19:$D$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$E$19:$E$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.43680279999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.37440240000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.312002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.34320220000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.28080179999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.2964019</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.312002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.39000249999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.26520169999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.28080179999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil1!$F$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Q2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Feuil1!$D$19:$D$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$F$19:$F$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.40560259999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.37440240000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2964019</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.37440240000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.26520169999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.26520169999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.40560259999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.37440240000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.26520169999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.26520169999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="74280320"/>
+        <c:axId val="74282112"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="74280320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="74282112"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="74282112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="74280320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil1!$E$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Q1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Feuil1!$D$32:$D$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$E$32:$E$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.56001E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.2400400000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.17160110000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.39000249999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil1!$F$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Q2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Feuil1!$D$32:$D$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$F$32:$F$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.56001E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.56001E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.2400400000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.1404009</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.39000249999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil1!$G$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Q3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Feuil1!$D$32:$D$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$G$32:$G$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.56001E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.56001E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.2400400000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.80005E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.32760210000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil1!$H$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Q4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Feuil1!$D$32:$D$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$H$32:$H$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.56001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.56001E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.56001E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.1200200000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.2400400000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.3600600000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.312002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil1!$I$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Q5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Feuil1!$D$32:$D$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$I$32:$I$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.56001E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.6800300000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.80005E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.35880230000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="102364288"/>
+        <c:axId val="102365824"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="102364288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="102365824"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="102365824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="102364288"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil1!$F$44</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Q1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Feuil1!$E$45:$E$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$F$45:$F$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.56001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.56001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.6800300000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4524029</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.6064744</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="102750848"/>
+        <c:axId val="103576320"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="102750848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="103576320"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="103576320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="102750848"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil1!$F$57</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Q1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Feuil1!$E$58:$E$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$F$58:$F$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.39000249999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.28080179999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.28080179999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.34320220000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.312002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.312002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="104530304"/>
+        <c:axId val="104531840"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="104530304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="104531840"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="104531840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="104530304"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>2809875</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Graphique 4" title="oi"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>2590800</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Graphique 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>1895475</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Graphique 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>2276475</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Graphique 8"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>2266950</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Graphique 9"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -390,175 +2222,1074 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C5:F15"/>
+  <dimension ref="A4:O67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="E72" sqref="E72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="32" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="60.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="60.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" t="s">
+    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="11" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C6">
+      <c r="G5" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="2">
         <v>1</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <v>2</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C7">
+      <c r="E6" s="19">
+        <v>0</v>
+      </c>
+      <c r="F6" s="20">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="2">
         <v>4</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <v>4</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C8">
+      <c r="E7" s="19">
+        <v>0</v>
+      </c>
+      <c r="F7" s="20">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="2">
         <v>9</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="2">
         <v>6</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C9">
+      <c r="E8" s="19">
+        <v>0</v>
+      </c>
+      <c r="F8" s="20">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="2">
         <v>16</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="2">
         <v>8</v>
       </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C10">
+      <c r="E9" s="19">
+        <v>0</v>
+      </c>
+      <c r="F9" s="20">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="2">
         <v>25</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="2">
         <v>10</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="19">
+        <v>1.56001E-2</v>
+      </c>
+      <c r="F10" s="20">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="2">
+        <v>36</v>
+      </c>
+      <c r="D11" s="2">
+        <v>12</v>
+      </c>
+      <c r="E11" s="19">
+        <v>1.56002E-2</v>
+      </c>
+      <c r="F11" s="20">
+        <v>1.56001E-2</v>
+      </c>
+      <c r="G11">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="2">
+        <v>49</v>
+      </c>
+      <c r="D12" s="2">
+        <v>14</v>
+      </c>
+      <c r="E12" s="19">
+        <v>1.5600299999999999E-2</v>
+      </c>
+      <c r="F12" s="20">
+        <v>3.1200200000000001E-2</v>
+      </c>
+      <c r="G12">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="2">
+        <v>64</v>
+      </c>
+      <c r="D13" s="2">
+        <v>16</v>
+      </c>
+      <c r="E13" s="19">
+        <v>3.1200200000000001E-2</v>
+      </c>
+      <c r="F13" s="20">
+        <v>3.1200200000000001E-2</v>
+      </c>
+      <c r="G13">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="5"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="2">
+        <v>81</v>
+      </c>
+      <c r="D14" s="2">
+        <v>18</v>
+      </c>
+      <c r="E14" s="19">
+        <v>7.80005E-2</v>
+      </c>
+      <c r="F14" s="20">
+        <v>0.1248008</v>
+      </c>
+      <c r="G14">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="7"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="9">
+        <v>100</v>
+      </c>
+      <c r="D15" s="9">
+        <v>20</v>
+      </c>
+      <c r="E15" s="21">
+        <v>0.2964019</v>
+      </c>
+      <c r="F15" s="22">
+        <v>0.24960160000000001</v>
+      </c>
+      <c r="G15">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C11">
-        <v>36</v>
-      </c>
-      <c r="D11">
+      <c r="E18" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="5"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="9">
+        <v>100</v>
+      </c>
+      <c r="D19" s="2">
+        <v>2</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0.43680279999999999</v>
+      </c>
+      <c r="F19" s="6">
+        <v>0.40560259999999998</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="5"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="9">
+        <v>100</v>
+      </c>
+      <c r="D20" s="2">
+        <v>4</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0.37440240000000002</v>
+      </c>
+      <c r="F20" s="6">
+        <v>0.37440240000000002</v>
+      </c>
+      <c r="G20">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="5"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="9">
+        <v>100</v>
+      </c>
+      <c r="D21" s="2">
+        <v>6</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0.312002</v>
+      </c>
+      <c r="F21" s="6">
+        <v>0.2964019</v>
+      </c>
+      <c r="G21">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="5"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="9">
+        <v>100</v>
+      </c>
+      <c r="D22" s="2">
+        <v>8</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0.34320220000000001</v>
+      </c>
+      <c r="F22" s="6">
+        <v>0.37440240000000002</v>
+      </c>
+      <c r="G22">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="5"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="9">
+        <v>100</v>
+      </c>
+      <c r="D23" s="2">
+        <v>10</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0.28080179999999999</v>
+      </c>
+      <c r="F23" s="6">
+        <v>0.26520169999999998</v>
+      </c>
+      <c r="G23">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="5"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="9">
+        <v>100</v>
+      </c>
+      <c r="D24" s="2">
         <v>12</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E24" s="2">
+        <v>0.2964019</v>
+      </c>
+      <c r="F24" s="6">
+        <v>0.26520169999999998</v>
+      </c>
+      <c r="G24">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="5"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="9">
+        <v>100</v>
+      </c>
+      <c r="D25" s="2">
+        <v>14</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0.312002</v>
+      </c>
+      <c r="F25" s="6">
+        <v>0.40560259999999998</v>
+      </c>
+      <c r="G25">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="5"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="9">
+        <v>100</v>
+      </c>
+      <c r="D26" s="2">
+        <v>16</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0.39000249999999997</v>
+      </c>
+      <c r="F26" s="6">
+        <v>0.37440240000000002</v>
+      </c>
+      <c r="G26">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="5"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="9">
+        <v>100</v>
+      </c>
+      <c r="D27" s="2">
+        <v>18</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0.26520169999999998</v>
+      </c>
+      <c r="F27" s="6">
+        <v>0.26520169999999998</v>
+      </c>
+      <c r="G27">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="7"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="9">
+        <v>100</v>
+      </c>
+      <c r="D28" s="9">
+        <v>20</v>
+      </c>
+      <c r="E28" s="9">
+        <v>0.28080179999999999</v>
+      </c>
+      <c r="F28" s="6">
+        <v>0.26520169999999998</v>
+      </c>
+      <c r="G28">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31" s="12"/>
+      <c r="C31" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G31" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F11" t="s">
+      <c r="H31" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="I31" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J31" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="O31" s="17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="5"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="16">
+        <v>100</v>
+      </c>
+      <c r="D32" s="2">
+        <v>2</v>
+      </c>
+      <c r="E32" s="19">
+        <v>0</v>
+      </c>
+      <c r="F32" s="20">
+        <v>0</v>
+      </c>
+      <c r="G32" s="20">
+        <v>0</v>
+      </c>
+      <c r="H32" s="20">
+        <v>0</v>
+      </c>
+      <c r="I32" s="20">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="O32" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="5"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="16">
+        <v>100</v>
+      </c>
+      <c r="D33" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C12">
-        <v>49</v>
-      </c>
-      <c r="D12">
+      <c r="E33" s="19">
+        <v>0</v>
+      </c>
+      <c r="F33" s="20">
+        <v>0</v>
+      </c>
+      <c r="G33" s="20">
+        <v>0</v>
+      </c>
+      <c r="H33" s="20">
+        <v>0</v>
+      </c>
+      <c r="I33" s="20">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0.04</v>
+      </c>
+      <c r="O33" s="17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="5"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="16">
+        <v>100</v>
+      </c>
+      <c r="D34" s="2">
+        <v>6</v>
+      </c>
+      <c r="E34" s="19">
+        <v>0</v>
+      </c>
+      <c r="F34" s="20">
+        <v>0</v>
+      </c>
+      <c r="G34" s="20">
+        <v>0</v>
+      </c>
+      <c r="H34" s="20">
+        <v>0</v>
+      </c>
+      <c r="I34" s="20">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0.08</v>
+      </c>
+      <c r="O34" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="5"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="16">
+        <v>100</v>
+      </c>
+      <c r="D35" s="2">
+        <v>8</v>
+      </c>
+      <c r="E35" s="19">
+        <v>0</v>
+      </c>
+      <c r="F35" s="20">
+        <v>0</v>
+      </c>
+      <c r="G35" s="20">
+        <v>0</v>
+      </c>
+      <c r="H35" s="20">
+        <v>1.56001E-2</v>
+      </c>
+      <c r="I35" s="20">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0.12</v>
+      </c>
+      <c r="O35" s="17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="5"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="16">
+        <v>100</v>
+      </c>
+      <c r="D36" s="2">
+        <v>10</v>
+      </c>
+      <c r="E36" s="19">
+        <v>0</v>
+      </c>
+      <c r="F36" s="20">
+        <v>0</v>
+      </c>
+      <c r="G36" s="20">
+        <v>0</v>
+      </c>
+      <c r="H36" s="20">
+        <v>1.56001E-2</v>
+      </c>
+      <c r="I36" s="20">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0.16</v>
+      </c>
+      <c r="O36" s="18"/>
+    </row>
+    <row r="37" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="5"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="16">
+        <v>100</v>
+      </c>
+      <c r="D37" s="2">
+        <v>12</v>
+      </c>
+      <c r="E37" s="19">
+        <v>0</v>
+      </c>
+      <c r="F37" s="20">
+        <v>1.56001E-2</v>
+      </c>
+      <c r="G37" s="20">
+        <v>1.56001E-2</v>
+      </c>
+      <c r="H37" s="20">
+        <v>1.56001E-2</v>
+      </c>
+      <c r="I37" s="20">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0.2</v>
+      </c>
+      <c r="O37" s="18"/>
+    </row>
+    <row r="38" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="5"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="16">
+        <v>100</v>
+      </c>
+      <c r="D38" s="2">
         <v>14</v>
       </c>
-      <c r="E12" t="s">
-        <v>6</v>
-      </c>
-      <c r="F12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C13">
-        <v>64</v>
-      </c>
-      <c r="D13">
+      <c r="E38" s="19">
+        <v>1.56001E-2</v>
+      </c>
+      <c r="F38" s="20">
+        <v>1.56001E-2</v>
+      </c>
+      <c r="G38" s="20">
+        <v>1.56001E-2</v>
+      </c>
+      <c r="H38" s="20">
+        <v>3.1200200000000001E-2</v>
+      </c>
+      <c r="I38" s="20">
+        <v>1.56001E-2</v>
+      </c>
+      <c r="J38">
+        <v>0.24</v>
+      </c>
+      <c r="O38" s="18"/>
+    </row>
+    <row r="39" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="5"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="16">
+        <v>100</v>
+      </c>
+      <c r="D39" s="2">
         <v>16</v>
       </c>
-      <c r="E13" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C14">
-        <v>81</v>
-      </c>
-      <c r="D14">
+      <c r="E39" s="19">
+        <v>6.2400400000000002E-2</v>
+      </c>
+      <c r="F39" s="20">
+        <v>6.2400400000000002E-2</v>
+      </c>
+      <c r="G39" s="20">
+        <v>6.2400400000000002E-2</v>
+      </c>
+      <c r="H39" s="20">
+        <v>6.2400400000000002E-2</v>
+      </c>
+      <c r="I39" s="20">
+        <v>4.6800300000000003E-2</v>
+      </c>
+      <c r="J39">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="O39" s="18"/>
+    </row>
+    <row r="40" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="5"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="16">
+        <v>100</v>
+      </c>
+      <c r="D40" s="2">
         <v>18</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E40" s="19">
+        <v>0.17160110000000001</v>
+      </c>
+      <c r="F40" s="20">
+        <v>0.1404009</v>
+      </c>
+      <c r="G40" s="20">
+        <v>7.80005E-2</v>
+      </c>
+      <c r="H40" s="20">
+        <v>9.3600600000000006E-2</v>
+      </c>
+      <c r="I40" s="20">
+        <v>7.80005E-2</v>
+      </c>
+      <c r="J40">
+        <v>0.32</v>
+      </c>
+      <c r="O40" s="18"/>
+    </row>
+    <row r="41" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="7"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="16">
+        <v>100</v>
+      </c>
+      <c r="D41" s="9">
+        <v>20</v>
+      </c>
+      <c r="E41" s="21">
+        <v>0.39000249999999997</v>
+      </c>
+      <c r="F41" s="22">
+        <v>0.39000249999999997</v>
+      </c>
+      <c r="G41" s="22">
+        <v>0.32760210000000001</v>
+      </c>
+      <c r="H41" s="22">
+        <v>0.312002</v>
+      </c>
+      <c r="I41" s="22">
+        <v>0.35880230000000002</v>
+      </c>
+      <c r="J41">
+        <v>0.36</v>
+      </c>
+      <c r="O41" s="18"/>
+    </row>
+    <row r="43" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B44" s="12"/>
+      <c r="C44" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="D44" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="E44" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F44" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="G44" s="24"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A45" s="5"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="2">
+        <v>5</v>
+      </c>
+      <c r="D45" s="2">
+        <v>5</v>
+      </c>
+      <c r="E45" s="2">
+        <v>5</v>
+      </c>
+      <c r="F45" s="19">
+        <v>1.56001E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A46" s="5"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="2">
+        <v>10</v>
+      </c>
+      <c r="D46" s="2">
+        <v>10</v>
+      </c>
+      <c r="E46" s="2">
+        <v>10</v>
+      </c>
+      <c r="F46" s="19">
+        <v>1.56001E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A47" s="5"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="2">
+        <v>15</v>
+      </c>
+      <c r="D47" s="2">
+        <v>15</v>
+      </c>
+      <c r="E47" s="2">
+        <v>15</v>
+      </c>
+      <c r="F47" s="19">
+        <v>4.6800300000000003E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A48" s="5"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="2">
+        <v>20</v>
+      </c>
+      <c r="D48" s="2">
+        <v>20</v>
+      </c>
+      <c r="E48" s="2">
+        <v>20</v>
+      </c>
+      <c r="F48" s="19">
+        <v>0.4524029</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="5"/>
+      <c r="B49" s="13"/>
+      <c r="C49" s="2">
+        <v>25</v>
+      </c>
+      <c r="D49" s="2">
+        <v>25</v>
+      </c>
+      <c r="E49" s="2">
+        <v>25</v>
+      </c>
+      <c r="F49" s="19">
+        <v>11.6064744</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="5"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="2">
+        <v>30</v>
+      </c>
+      <c r="D50" s="2">
+        <v>30</v>
+      </c>
+      <c r="E50">
+        <v>30</v>
+      </c>
+      <c r="F50" s="19" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C15">
-        <v>100</v>
-      </c>
-      <c r="D15">
+      <c r="G50" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="5"/>
+      <c r="B51" s="13"/>
+      <c r="E51" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="5"/>
+      <c r="B52" s="13"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="5"/>
+      <c r="B53" s="13"/>
+    </row>
+    <row r="54" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="7"/>
+      <c r="B54" s="14"/>
+    </row>
+    <row r="56" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B57" s="12"/>
+      <c r="C57" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D57" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E57" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="F57" s="10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="5"/>
+      <c r="B58" s="13"/>
+      <c r="C58" s="16">
         <v>20</v>
       </c>
-      <c r="E15" t="s">
+      <c r="D58" s="9">
+        <v>20</v>
+      </c>
+      <c r="E58" s="2">
+        <v>5</v>
+      </c>
+      <c r="F58" s="19">
+        <v>0.39000249999999997</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="5"/>
+      <c r="B59" s="13"/>
+      <c r="C59" s="16">
+        <v>20</v>
+      </c>
+      <c r="D59" s="9">
+        <v>20</v>
+      </c>
+      <c r="E59" s="2">
         <v>10</v>
       </c>
-      <c r="F15" t="s">
-        <v>11</v>
-      </c>
+      <c r="F59" s="19">
+        <v>0.28080179999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="5"/>
+      <c r="B60" s="13"/>
+      <c r="C60" s="16">
+        <v>20</v>
+      </c>
+      <c r="D60" s="9">
+        <v>20</v>
+      </c>
+      <c r="E60" s="2">
+        <v>15</v>
+      </c>
+      <c r="F60" s="19">
+        <v>0.28080179999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="5"/>
+      <c r="B61" s="13"/>
+      <c r="C61" s="16">
+        <v>20</v>
+      </c>
+      <c r="D61" s="9">
+        <v>20</v>
+      </c>
+      <c r="E61" s="2">
+        <v>20</v>
+      </c>
+      <c r="F61" s="19">
+        <v>0.34320220000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="5"/>
+      <c r="B62" s="13"/>
+      <c r="C62" s="16">
+        <v>20</v>
+      </c>
+      <c r="D62" s="9">
+        <v>20</v>
+      </c>
+      <c r="E62" s="2">
+        <v>25</v>
+      </c>
+      <c r="F62" s="19">
+        <v>0.312002</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="5"/>
+      <c r="B63" s="13"/>
+      <c r="C63" s="16">
+        <v>20</v>
+      </c>
+      <c r="D63" s="9">
+        <v>20</v>
+      </c>
+      <c r="E63" s="2">
+        <v>30</v>
+      </c>
+      <c r="F63" s="19">
+        <v>0.312002</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="5"/>
+      <c r="B64" s="13"/>
+      <c r="C64" s="16"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="19"/>
+      <c r="F64" s="19"/>
+    </row>
+    <row r="65" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="5"/>
+      <c r="B65" s="13"/>
+      <c r="C65" s="16"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="19"/>
+      <c r="F65" s="19"/>
+    </row>
+    <row r="66" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="5"/>
+      <c r="B66" s="13"/>
+      <c r="C66" s="16"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="19"/>
+      <c r="F66" s="19"/>
+    </row>
+    <row r="67" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="7"/>
+      <c r="B67" s="14"/>
+      <c r="C67" s="16"/>
+      <c r="D67" s="9"/>
+      <c r="E67" s="21"/>
+      <c r="F67" s="21"/>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A5:B15"/>
+    <mergeCell ref="A18:B28"/>
+    <mergeCell ref="A31:B41"/>
+    <mergeCell ref="A44:B54"/>
+    <mergeCell ref="A57:B67"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Algorithm/Test results/tests - implementation first version.xlsx
+++ b/Algorithm/Test results/tests - implementation first version.xlsx
@@ -322,41 +322,14 @@
   </cellStyleXfs>
   <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -388,6 +361,33 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -582,11 +582,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="96601216"/>
-        <c:axId val="96602752"/>
+        <c:axId val="107483520"/>
+        <c:axId val="44691456"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="96601216"/>
+        <c:axId val="107483520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -596,7 +596,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96602752"/>
+        <c:crossAx val="44691456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -604,7 +604,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="96602752"/>
+        <c:axId val="44691456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -615,7 +615,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96601216"/>
+        <c:crossAx val="107483520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -855,11 +855,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="74280320"/>
-        <c:axId val="74282112"/>
+        <c:axId val="44720512"/>
+        <c:axId val="44722048"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="74280320"/>
+        <c:axId val="44720512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -869,7 +869,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74282112"/>
+        <c:crossAx val="44722048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -877,7 +877,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="74282112"/>
+        <c:axId val="44722048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -888,7 +888,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74280320"/>
+        <c:crossAx val="44720512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1410,11 +1410,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="102364288"/>
-        <c:axId val="102365824"/>
+        <c:axId val="45154688"/>
+        <c:axId val="45156224"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="102364288"/>
+        <c:axId val="45154688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1424,7 +1424,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102365824"/>
+        <c:crossAx val="45156224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1432,7 +1432,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="102365824"/>
+        <c:axId val="45156224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1443,7 +1443,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102364288"/>
+        <c:crossAx val="45154688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1479,11 +1479,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -1566,11 +1562,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="102750848"/>
-        <c:axId val="103576320"/>
+        <c:axId val="45176320"/>
+        <c:axId val="45177856"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="102750848"/>
+        <c:axId val="45176320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1580,7 +1576,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103576320"/>
+        <c:crossAx val="45177856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1588,7 +1584,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="103576320"/>
+        <c:axId val="45177856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1599,7 +1595,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102750848"/>
+        <c:crossAx val="45176320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1636,6 +1632,24 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
     </c:title>
@@ -1725,11 +1739,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="104530304"/>
-        <c:axId val="104531840"/>
+        <c:axId val="45214336"/>
+        <c:axId val="45216128"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="104530304"/>
+        <c:axId val="45214336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1739,7 +1753,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104531840"/>
+        <c:crossAx val="45216128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1747,7 +1761,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="104531840"/>
+        <c:axId val="45216128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1758,7 +1772,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104530304"/>
+        <c:crossAx val="45214336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2224,8 +2238,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:O67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="E72" sqref="E72"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2240,39 +2254,39 @@
   <sheetData>
     <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="10" t="s">
+      <c r="B5" s="18"/>
+      <c r="C5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="25" t="s">
+      <c r="G5" s="16" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="2">
+      <c r="A6" s="19"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="1">
         <v>1</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>2</v>
       </c>
-      <c r="E6" s="19">
-        <v>0</v>
-      </c>
-      <c r="F6" s="20">
+      <c r="E6" s="10">
+        <v>0</v>
+      </c>
+      <c r="F6" s="11">
         <v>0</v>
       </c>
       <c r="G6">
@@ -2280,18 +2294,18 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="2">
+      <c r="A7" s="19"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="1">
         <v>4</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>4</v>
       </c>
-      <c r="E7" s="19">
-        <v>0</v>
-      </c>
-      <c r="F7" s="20">
+      <c r="E7" s="10">
+        <v>0</v>
+      </c>
+      <c r="F7" s="11">
         <v>0</v>
       </c>
       <c r="G7">
@@ -2299,18 +2313,18 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="2">
+      <c r="A8" s="19"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="1">
         <v>9</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <v>6</v>
       </c>
-      <c r="E8" s="19">
-        <v>0</v>
-      </c>
-      <c r="F8" s="20">
+      <c r="E8" s="10">
+        <v>0</v>
+      </c>
+      <c r="F8" s="11">
         <v>0</v>
       </c>
       <c r="G8">
@@ -2318,18 +2332,18 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="2">
+      <c r="A9" s="19"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="1">
         <v>16</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="1">
         <v>8</v>
       </c>
-      <c r="E9" s="19">
-        <v>0</v>
-      </c>
-      <c r="F9" s="20">
+      <c r="E9" s="10">
+        <v>0</v>
+      </c>
+      <c r="F9" s="11">
         <v>0</v>
       </c>
       <c r="G9">
@@ -2337,18 +2351,18 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="2">
+      <c r="A10" s="19"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="1">
         <v>25</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="1">
         <v>10</v>
       </c>
-      <c r="E10" s="19">
+      <c r="E10" s="10">
         <v>1.56001E-2</v>
       </c>
-      <c r="F10" s="20">
+      <c r="F10" s="11">
         <v>0</v>
       </c>
       <c r="G10">
@@ -2356,18 +2370,18 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="2">
+      <c r="A11" s="19"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="1">
         <v>36</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="1">
         <v>12</v>
       </c>
-      <c r="E11" s="19">
+      <c r="E11" s="10">
         <v>1.56002E-2</v>
       </c>
-      <c r="F11" s="20">
+      <c r="F11" s="11">
         <v>1.56001E-2</v>
       </c>
       <c r="G11">
@@ -2375,18 +2389,18 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="2">
+      <c r="A12" s="19"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="1">
         <v>49</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="1">
         <v>14</v>
       </c>
-      <c r="E12" s="19">
+      <c r="E12" s="10">
         <v>1.5600299999999999E-2</v>
       </c>
-      <c r="F12" s="20">
+      <c r="F12" s="11">
         <v>3.1200200000000001E-2</v>
       </c>
       <c r="G12">
@@ -2394,18 +2408,18 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="2">
+      <c r="A13" s="19"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="1">
         <v>64</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="1">
         <v>16</v>
       </c>
-      <c r="E13" s="19">
+      <c r="E13" s="10">
         <v>3.1200200000000001E-2</v>
       </c>
-      <c r="F13" s="20">
+      <c r="F13" s="11">
         <v>3.1200200000000001E-2</v>
       </c>
       <c r="G13">
@@ -2413,18 +2427,18 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="2">
+      <c r="A14" s="19"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="1">
         <v>81</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="1">
         <v>18</v>
       </c>
-      <c r="E14" s="19">
+      <c r="E14" s="10">
         <v>7.80005E-2</v>
       </c>
-      <c r="F14" s="20">
+      <c r="F14" s="11">
         <v>0.1248008</v>
       </c>
       <c r="G14">
@@ -2432,18 +2446,18 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9">
+      <c r="A15" s="21"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="3">
         <v>100</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="3">
         <v>20</v>
       </c>
-      <c r="E15" s="21">
+      <c r="E15" s="12">
         <v>0.2964019</v>
       </c>
-      <c r="F15" s="22">
+      <c r="F15" s="13">
         <v>0.24960160000000001</v>
       </c>
       <c r="G15">
@@ -2452,39 +2466,39 @@
     </row>
     <row r="17" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="18" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D18" s="10" t="s">
+      <c r="B18" s="18"/>
+      <c r="C18" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="E18" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F18" s="11" t="s">
+      <c r="F18" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G18" s="25" t="s">
+      <c r="G18" s="16" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="5"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="9">
+      <c r="A19" s="19"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="3">
         <v>100</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="1">
         <v>2</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="1">
         <v>0.43680279999999999</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19" s="2">
         <v>0.40560259999999998</v>
       </c>
       <c r="G19">
@@ -2492,18 +2506,18 @@
       </c>
     </row>
     <row r="20" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="5"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="9">
+      <c r="A20" s="19"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="3">
         <v>100</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="1">
         <v>4</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="1">
         <v>0.37440240000000002</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20" s="2">
         <v>0.37440240000000002</v>
       </c>
       <c r="G20">
@@ -2511,18 +2525,18 @@
       </c>
     </row>
     <row r="21" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="5"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="9">
+      <c r="A21" s="19"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="3">
         <v>100</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="1">
         <v>6</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="1">
         <v>0.312002</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F21" s="2">
         <v>0.2964019</v>
       </c>
       <c r="G21">
@@ -2530,18 +2544,18 @@
       </c>
     </row>
     <row r="22" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="5"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="9">
+      <c r="A22" s="19"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="3">
         <v>100</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="1">
         <v>8</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="1">
         <v>0.34320220000000001</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F22" s="2">
         <v>0.37440240000000002</v>
       </c>
       <c r="G22">
@@ -2549,18 +2563,18 @@
       </c>
     </row>
     <row r="23" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="5"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="9">
+      <c r="A23" s="19"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="3">
         <v>100</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="1">
         <v>10</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="1">
         <v>0.28080179999999999</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F23" s="2">
         <v>0.26520169999999998</v>
       </c>
       <c r="G23">
@@ -2568,18 +2582,18 @@
       </c>
     </row>
     <row r="24" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="5"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="9">
+      <c r="A24" s="19"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="3">
         <v>100</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="1">
         <v>12</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24" s="1">
         <v>0.2964019</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F24" s="2">
         <v>0.26520169999999998</v>
       </c>
       <c r="G24">
@@ -2587,18 +2601,18 @@
       </c>
     </row>
     <row r="25" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="5"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="9">
+      <c r="A25" s="19"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="3">
         <v>100</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="1">
         <v>14</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="1">
         <v>0.312002</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F25" s="2">
         <v>0.40560259999999998</v>
       </c>
       <c r="G25">
@@ -2606,18 +2620,18 @@
       </c>
     </row>
     <row r="26" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="5"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="9">
+      <c r="A26" s="19"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="3">
         <v>100</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26" s="1">
         <v>16</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26" s="1">
         <v>0.39000249999999997</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F26" s="2">
         <v>0.37440240000000002</v>
       </c>
       <c r="G26">
@@ -2625,18 +2639,18 @@
       </c>
     </row>
     <row r="27" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="5"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="9">
+      <c r="A27" s="19"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="3">
         <v>100</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27" s="1">
         <v>18</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27" s="1">
         <v>0.26520169999999998</v>
       </c>
-      <c r="F27" s="6">
+      <c r="F27" s="2">
         <v>0.26520169999999998</v>
       </c>
       <c r="G27">
@@ -2644,18 +2658,18 @@
       </c>
     </row>
     <row r="28" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="7"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="9">
+      <c r="A28" s="21"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="3">
         <v>100</v>
       </c>
-      <c r="D28" s="9">
+      <c r="D28" s="3">
         <v>20</v>
       </c>
-      <c r="E28" s="9">
+      <c r="E28" s="3">
         <v>0.28080179999999999</v>
       </c>
-      <c r="F28" s="6">
+      <c r="F28" s="2">
         <v>0.26520169999999998</v>
       </c>
       <c r="G28">
@@ -2664,449 +2678,449 @@
     </row>
     <row r="30" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B31" s="12"/>
-      <c r="C31" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="D31" s="10" t="s">
+      <c r="B31" s="23"/>
+      <c r="C31" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D31" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E31" s="10" t="s">
+      <c r="E31" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F31" s="11" t="s">
+      <c r="F31" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G31" s="11" t="s">
+      <c r="G31" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H31" s="11" t="s">
+      <c r="H31" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I31" s="11" t="s">
+      <c r="I31" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J31" s="25" t="s">
+      <c r="J31" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="O31" s="17" t="s">
+      <c r="O31" s="8" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="5"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="16">
+      <c r="A32" s="19"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="7">
         <v>100</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D32" s="1">
         <v>2</v>
       </c>
-      <c r="E32" s="19">
-        <v>0</v>
-      </c>
-      <c r="F32" s="20">
-        <v>0</v>
-      </c>
-      <c r="G32" s="20">
-        <v>0</v>
-      </c>
-      <c r="H32" s="20">
-        <v>0</v>
-      </c>
-      <c r="I32" s="20">
+      <c r="E32" s="10">
+        <v>0</v>
+      </c>
+      <c r="F32" s="11">
+        <v>0</v>
+      </c>
+      <c r="G32" s="11">
+        <v>0</v>
+      </c>
+      <c r="H32" s="11">
+        <v>0</v>
+      </c>
+      <c r="I32" s="11">
         <v>0</v>
       </c>
       <c r="J32">
         <v>0</v>
       </c>
-      <c r="O32" s="17" t="s">
+      <c r="O32" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="5"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="16">
+      <c r="A33" s="19"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="7">
         <v>100</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D33" s="1">
         <v>4</v>
       </c>
-      <c r="E33" s="19">
-        <v>0</v>
-      </c>
-      <c r="F33" s="20">
-        <v>0</v>
-      </c>
-      <c r="G33" s="20">
-        <v>0</v>
-      </c>
-      <c r="H33" s="20">
-        <v>0</v>
-      </c>
-      <c r="I33" s="20">
+      <c r="E33" s="10">
+        <v>0</v>
+      </c>
+      <c r="F33" s="11">
+        <v>0</v>
+      </c>
+      <c r="G33" s="11">
+        <v>0</v>
+      </c>
+      <c r="H33" s="11">
+        <v>0</v>
+      </c>
+      <c r="I33" s="11">
         <v>0</v>
       </c>
       <c r="J33">
         <v>0.04</v>
       </c>
-      <c r="O33" s="17" t="s">
+      <c r="O33" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="5"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="16">
+      <c r="A34" s="19"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="7">
         <v>100</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D34" s="1">
         <v>6</v>
       </c>
-      <c r="E34" s="19">
-        <v>0</v>
-      </c>
-      <c r="F34" s="20">
-        <v>0</v>
-      </c>
-      <c r="G34" s="20">
-        <v>0</v>
-      </c>
-      <c r="H34" s="20">
-        <v>0</v>
-      </c>
-      <c r="I34" s="20">
+      <c r="E34" s="10">
+        <v>0</v>
+      </c>
+      <c r="F34" s="11">
+        <v>0</v>
+      </c>
+      <c r="G34" s="11">
+        <v>0</v>
+      </c>
+      <c r="H34" s="11">
+        <v>0</v>
+      </c>
+      <c r="I34" s="11">
         <v>0</v>
       </c>
       <c r="J34">
         <v>0.08</v>
       </c>
-      <c r="O34" s="17" t="s">
+      <c r="O34" s="8" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="5"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="16">
+      <c r="A35" s="19"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="7">
         <v>100</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D35" s="1">
         <v>8</v>
       </c>
-      <c r="E35" s="19">
-        <v>0</v>
-      </c>
-      <c r="F35" s="20">
-        <v>0</v>
-      </c>
-      <c r="G35" s="20">
-        <v>0</v>
-      </c>
-      <c r="H35" s="20">
+      <c r="E35" s="10">
+        <v>0</v>
+      </c>
+      <c r="F35" s="11">
+        <v>0</v>
+      </c>
+      <c r="G35" s="11">
+        <v>0</v>
+      </c>
+      <c r="H35" s="11">
         <v>1.56001E-2</v>
       </c>
-      <c r="I35" s="20">
+      <c r="I35" s="11">
         <v>0</v>
       </c>
       <c r="J35">
         <v>0.12</v>
       </c>
-      <c r="O35" s="17" t="s">
+      <c r="O35" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="5"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="16">
+      <c r="A36" s="19"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="7">
         <v>100</v>
       </c>
-      <c r="D36" s="2">
+      <c r="D36" s="1">
         <v>10</v>
       </c>
-      <c r="E36" s="19">
-        <v>0</v>
-      </c>
-      <c r="F36" s="20">
-        <v>0</v>
-      </c>
-      <c r="G36" s="20">
-        <v>0</v>
-      </c>
-      <c r="H36" s="20">
+      <c r="E36" s="10">
+        <v>0</v>
+      </c>
+      <c r="F36" s="11">
+        <v>0</v>
+      </c>
+      <c r="G36" s="11">
+        <v>0</v>
+      </c>
+      <c r="H36" s="11">
         <v>1.56001E-2</v>
       </c>
-      <c r="I36" s="20">
+      <c r="I36" s="11">
         <v>0</v>
       </c>
       <c r="J36">
         <v>0.16</v>
       </c>
-      <c r="O36" s="18"/>
+      <c r="O36" s="9"/>
     </row>
     <row r="37" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="5"/>
-      <c r="B37" s="13"/>
-      <c r="C37" s="16">
+      <c r="A37" s="19"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="7">
         <v>100</v>
       </c>
-      <c r="D37" s="2">
+      <c r="D37" s="1">
         <v>12</v>
       </c>
-      <c r="E37" s="19">
-        <v>0</v>
-      </c>
-      <c r="F37" s="20">
+      <c r="E37" s="10">
+        <v>0</v>
+      </c>
+      <c r="F37" s="11">
         <v>1.56001E-2</v>
       </c>
-      <c r="G37" s="20">
+      <c r="G37" s="11">
         <v>1.56001E-2</v>
       </c>
-      <c r="H37" s="20">
+      <c r="H37" s="11">
         <v>1.56001E-2</v>
       </c>
-      <c r="I37" s="20">
+      <c r="I37" s="11">
         <v>0</v>
       </c>
       <c r="J37">
         <v>0.2</v>
       </c>
-      <c r="O37" s="18"/>
+      <c r="O37" s="9"/>
     </row>
     <row r="38" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="5"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="16">
+      <c r="A38" s="19"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="7">
         <v>100</v>
       </c>
-      <c r="D38" s="2">
+      <c r="D38" s="1">
         <v>14</v>
       </c>
-      <c r="E38" s="19">
+      <c r="E38" s="10">
         <v>1.56001E-2</v>
       </c>
-      <c r="F38" s="20">
+      <c r="F38" s="11">
         <v>1.56001E-2</v>
       </c>
-      <c r="G38" s="20">
+      <c r="G38" s="11">
         <v>1.56001E-2</v>
       </c>
-      <c r="H38" s="20">
+      <c r="H38" s="11">
         <v>3.1200200000000001E-2</v>
       </c>
-      <c r="I38" s="20">
+      <c r="I38" s="11">
         <v>1.56001E-2</v>
       </c>
       <c r="J38">
         <v>0.24</v>
       </c>
-      <c r="O38" s="18"/>
+      <c r="O38" s="9"/>
     </row>
     <row r="39" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="5"/>
-      <c r="B39" s="13"/>
-      <c r="C39" s="16">
+      <c r="A39" s="19"/>
+      <c r="B39" s="24"/>
+      <c r="C39" s="7">
         <v>100</v>
       </c>
-      <c r="D39" s="2">
+      <c r="D39" s="1">
         <v>16</v>
       </c>
-      <c r="E39" s="19">
+      <c r="E39" s="10">
         <v>6.2400400000000002E-2</v>
       </c>
-      <c r="F39" s="20">
+      <c r="F39" s="11">
         <v>6.2400400000000002E-2</v>
       </c>
-      <c r="G39" s="20">
+      <c r="G39" s="11">
         <v>6.2400400000000002E-2</v>
       </c>
-      <c r="H39" s="20">
+      <c r="H39" s="11">
         <v>6.2400400000000002E-2</v>
       </c>
-      <c r="I39" s="20">
+      <c r="I39" s="11">
         <v>4.6800300000000003E-2</v>
       </c>
       <c r="J39">
         <v>0.28000000000000003</v>
       </c>
-      <c r="O39" s="18"/>
+      <c r="O39" s="9"/>
     </row>
     <row r="40" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="5"/>
-      <c r="B40" s="13"/>
-      <c r="C40" s="16">
+      <c r="A40" s="19"/>
+      <c r="B40" s="24"/>
+      <c r="C40" s="7">
         <v>100</v>
       </c>
-      <c r="D40" s="2">
+      <c r="D40" s="1">
         <v>18</v>
       </c>
-      <c r="E40" s="19">
+      <c r="E40" s="10">
         <v>0.17160110000000001</v>
       </c>
-      <c r="F40" s="20">
+      <c r="F40" s="11">
         <v>0.1404009</v>
       </c>
-      <c r="G40" s="20">
+      <c r="G40" s="11">
         <v>7.80005E-2</v>
       </c>
-      <c r="H40" s="20">
+      <c r="H40" s="11">
         <v>9.3600600000000006E-2</v>
       </c>
-      <c r="I40" s="20">
+      <c r="I40" s="11">
         <v>7.80005E-2</v>
       </c>
       <c r="J40">
         <v>0.32</v>
       </c>
-      <c r="O40" s="18"/>
+      <c r="O40" s="9"/>
     </row>
     <row r="41" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="7"/>
-      <c r="B41" s="14"/>
-      <c r="C41" s="16">
+      <c r="A41" s="21"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="7">
         <v>100</v>
       </c>
-      <c r="D41" s="9">
+      <c r="D41" s="3">
         <v>20</v>
       </c>
-      <c r="E41" s="21">
+      <c r="E41" s="12">
         <v>0.39000249999999997</v>
       </c>
-      <c r="F41" s="22">
+      <c r="F41" s="13">
         <v>0.39000249999999997</v>
       </c>
-      <c r="G41" s="22">
+      <c r="G41" s="13">
         <v>0.32760210000000001</v>
       </c>
-      <c r="H41" s="22">
+      <c r="H41" s="13">
         <v>0.312002</v>
       </c>
-      <c r="I41" s="22">
+      <c r="I41" s="13">
         <v>0.35880230000000002</v>
       </c>
       <c r="J41">
         <v>0.36</v>
       </c>
-      <c r="O41" s="18"/>
+      <c r="O41" s="9"/>
     </row>
     <row r="43" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B44" s="12"/>
-      <c r="C44" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="D44" s="23" t="s">
+      <c r="B44" s="23"/>
+      <c r="C44" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D44" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E44" s="23" t="s">
+      <c r="E44" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="F44" s="23" t="s">
+      <c r="F44" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="G44" s="24"/>
+      <c r="G44" s="15"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A45" s="5"/>
-      <c r="B45" s="13"/>
-      <c r="C45" s="2">
+      <c r="A45" s="19"/>
+      <c r="B45" s="24"/>
+      <c r="C45" s="1">
         <v>5</v>
       </c>
-      <c r="D45" s="2">
+      <c r="D45" s="1">
         <v>5</v>
       </c>
-      <c r="E45" s="2">
+      <c r="E45" s="1">
         <v>5</v>
       </c>
-      <c r="F45" s="19">
+      <c r="F45" s="10">
         <v>1.56001E-2</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A46" s="5"/>
-      <c r="B46" s="13"/>
-      <c r="C46" s="2">
+      <c r="A46" s="19"/>
+      <c r="B46" s="24"/>
+      <c r="C46" s="1">
         <v>10</v>
       </c>
-      <c r="D46" s="2">
+      <c r="D46" s="1">
         <v>10</v>
       </c>
-      <c r="E46" s="2">
+      <c r="E46" s="1">
         <v>10</v>
       </c>
-      <c r="F46" s="19">
+      <c r="F46" s="10">
         <v>1.56001E-2</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A47" s="5"/>
-      <c r="B47" s="13"/>
-      <c r="C47" s="2">
+      <c r="A47" s="19"/>
+      <c r="B47" s="24"/>
+      <c r="C47" s="1">
         <v>15</v>
       </c>
-      <c r="D47" s="2">
+      <c r="D47" s="1">
         <v>15</v>
       </c>
-      <c r="E47" s="2">
+      <c r="E47" s="1">
         <v>15</v>
       </c>
-      <c r="F47" s="19">
+      <c r="F47" s="10">
         <v>4.6800300000000003E-2</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A48" s="5"/>
-      <c r="B48" s="13"/>
-      <c r="C48" s="2">
+      <c r="A48" s="19"/>
+      <c r="B48" s="24"/>
+      <c r="C48" s="1">
         <v>20</v>
       </c>
-      <c r="D48" s="2">
+      <c r="D48" s="1">
         <v>20</v>
       </c>
-      <c r="E48" s="2">
+      <c r="E48" s="1">
         <v>20</v>
       </c>
-      <c r="F48" s="19">
+      <c r="F48" s="10">
         <v>0.4524029</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="5"/>
-      <c r="B49" s="13"/>
-      <c r="C49" s="2">
+      <c r="A49" s="19"/>
+      <c r="B49" s="24"/>
+      <c r="C49" s="1">
         <v>25</v>
       </c>
-      <c r="D49" s="2">
+      <c r="D49" s="1">
         <v>25</v>
       </c>
-      <c r="E49" s="2">
+      <c r="E49" s="1">
         <v>25</v>
       </c>
-      <c r="F49" s="19">
+      <c r="F49" s="10">
         <v>11.6064744</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="5"/>
-      <c r="B50" s="13"/>
-      <c r="C50" s="2">
+      <c r="A50" s="19"/>
+      <c r="B50" s="24"/>
+      <c r="C50" s="1">
         <v>30</v>
       </c>
-      <c r="D50" s="2">
+      <c r="D50" s="1">
         <v>30</v>
       </c>
       <c r="E50">
         <v>30</v>
       </c>
-      <c r="F50" s="19" t="s">
+      <c r="F50" s="10" t="s">
         <v>9</v>
       </c>
       <c r="G50" t="s">
@@ -3114,170 +3128,170 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="5"/>
-      <c r="B51" s="13"/>
+      <c r="A51" s="19"/>
+      <c r="B51" s="24"/>
       <c r="E51" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="5"/>
-      <c r="B52" s="13"/>
+      <c r="A52" s="19"/>
+      <c r="B52" s="24"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="5"/>
-      <c r="B53" s="13"/>
+      <c r="A53" s="19"/>
+      <c r="B53" s="24"/>
     </row>
     <row r="54" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="7"/>
-      <c r="B54" s="14"/>
+      <c r="A54" s="21"/>
+      <c r="B54" s="25"/>
     </row>
     <row r="56" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
+      <c r="A57" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B57" s="12"/>
-      <c r="C57" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="D57" s="10" t="s">
+      <c r="B57" s="23"/>
+      <c r="C57" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D57" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E57" s="23" t="s">
+      <c r="E57" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="F57" s="10" t="s">
+      <c r="F57" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="5"/>
-      <c r="B58" s="13"/>
-      <c r="C58" s="16">
+      <c r="A58" s="19"/>
+      <c r="B58" s="24"/>
+      <c r="C58" s="7">
         <v>20</v>
       </c>
-      <c r="D58" s="9">
+      <c r="D58" s="3">
         <v>20</v>
       </c>
-      <c r="E58" s="2">
+      <c r="E58" s="1">
         <v>5</v>
       </c>
-      <c r="F58" s="19">
+      <c r="F58" s="10">
         <v>0.39000249999999997</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="5"/>
-      <c r="B59" s="13"/>
-      <c r="C59" s="16">
+      <c r="A59" s="19"/>
+      <c r="B59" s="24"/>
+      <c r="C59" s="7">
         <v>20</v>
       </c>
-      <c r="D59" s="9">
+      <c r="D59" s="3">
         <v>20</v>
       </c>
-      <c r="E59" s="2">
+      <c r="E59" s="1">
         <v>10</v>
       </c>
-      <c r="F59" s="19">
+      <c r="F59" s="10">
         <v>0.28080179999999999</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="5"/>
-      <c r="B60" s="13"/>
-      <c r="C60" s="16">
+      <c r="A60" s="19"/>
+      <c r="B60" s="24"/>
+      <c r="C60" s="7">
         <v>20</v>
       </c>
-      <c r="D60" s="9">
+      <c r="D60" s="3">
         <v>20</v>
       </c>
-      <c r="E60" s="2">
+      <c r="E60" s="1">
         <v>15</v>
       </c>
-      <c r="F60" s="19">
+      <c r="F60" s="10">
         <v>0.28080179999999999</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="5"/>
-      <c r="B61" s="13"/>
-      <c r="C61" s="16">
+      <c r="A61" s="19"/>
+      <c r="B61" s="24"/>
+      <c r="C61" s="7">
         <v>20</v>
       </c>
-      <c r="D61" s="9">
+      <c r="D61" s="3">
         <v>20</v>
       </c>
-      <c r="E61" s="2">
+      <c r="E61" s="1">
         <v>20</v>
       </c>
-      <c r="F61" s="19">
+      <c r="F61" s="10">
         <v>0.34320220000000001</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="5"/>
-      <c r="B62" s="13"/>
-      <c r="C62" s="16">
+      <c r="A62" s="19"/>
+      <c r="B62" s="24"/>
+      <c r="C62" s="7">
         <v>20</v>
       </c>
-      <c r="D62" s="9">
+      <c r="D62" s="3">
         <v>20</v>
       </c>
-      <c r="E62" s="2">
+      <c r="E62" s="1">
         <v>25</v>
       </c>
-      <c r="F62" s="19">
+      <c r="F62" s="10">
         <v>0.312002</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="5"/>
-      <c r="B63" s="13"/>
-      <c r="C63" s="16">
+      <c r="A63" s="19"/>
+      <c r="B63" s="24"/>
+      <c r="C63" s="7">
         <v>20</v>
       </c>
-      <c r="D63" s="9">
+      <c r="D63" s="3">
         <v>20</v>
       </c>
-      <c r="E63" s="2">
+      <c r="E63" s="1">
         <v>30</v>
       </c>
-      <c r="F63" s="19">
+      <c r="F63" s="10">
         <v>0.312002</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="5"/>
-      <c r="B64" s="13"/>
-      <c r="C64" s="16"/>
-      <c r="D64" s="9"/>
-      <c r="E64" s="19"/>
-      <c r="F64" s="19"/>
+      <c r="A64" s="19"/>
+      <c r="B64" s="24"/>
+      <c r="C64" s="7"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="10"/>
+      <c r="F64" s="10"/>
     </row>
     <row r="65" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="5"/>
-      <c r="B65" s="13"/>
-      <c r="C65" s="16"/>
-      <c r="D65" s="9"/>
-      <c r="E65" s="19"/>
-      <c r="F65" s="19"/>
+      <c r="A65" s="19"/>
+      <c r="B65" s="24"/>
+      <c r="C65" s="7"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="10"/>
+      <c r="F65" s="10"/>
     </row>
     <row r="66" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="5"/>
-      <c r="B66" s="13"/>
-      <c r="C66" s="16"/>
-      <c r="D66" s="9"/>
-      <c r="E66" s="19"/>
-      <c r="F66" s="19"/>
+      <c r="A66" s="19"/>
+      <c r="B66" s="24"/>
+      <c r="C66" s="7"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="10"/>
+      <c r="F66" s="10"/>
     </row>
     <row r="67" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="7"/>
-      <c r="B67" s="14"/>
-      <c r="C67" s="16"/>
-      <c r="D67" s="9"/>
-      <c r="E67" s="21"/>
-      <c r="F67" s="21"/>
+      <c r="A67" s="21"/>
+      <c r="B67" s="25"/>
+      <c r="C67" s="7"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="12"/>
+      <c r="F67" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="5">
